--- a/biology/Zoologie/Gobiosoma/Gobiosoma.xlsx
+++ b/biology/Zoologie/Gobiosoma/Gobiosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobiosoma est un genre de poissons de la famille des Gobiidae, regroupant certaines des espèces de gobies.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS:
 Gobiosoma bosc (Lacepède, 1800)
 Gobiosoma chiquita (Jenkins &amp; Evermann, 1889)
 Gobiosoma ginsburgi Hildebrand &amp; Schroeder, 1928
@@ -531,53 +545,87 @@
 Gobiosoma schultzi (Ginsburg, 1944)
 Gobiosoma spes (Ginsburg, 1939)
 Gobiosoma spilotum (Ginsburg, 1939)
-Gobiosoma yucatanum Dawson, 1971
-Autres taxons
-La liste ci-après prend pour référence FishBase, et regroupe les taxons autrefois classés dans Gobiosoma, déplacés ou synonymes :
-Gobiosoma amurensis, synonyme de Saurogobio dabryi[1]
-Gobiosoma atronasum, synonyme de Elacatinus atronasus[2]
-Gobiosoma brocki, synonyme de Elacatinus digueti[3]
-Gobiosoma caspium, synonyme de Caspiosoma caspium[4]
-Gobiosoma ceuthoecum, synonyme de Barbulifer ceuthoecus[5]
-Gobiosoma chancei, synonyme de Elacatinus chancei[6]
-Gobiosoma digueti, synonyme de Elacatinus digueti[3]
-Gobiosoma dilepis, synonyme de Elacatinus dilepis[7]
-Gobiosoma etheostoma, synonyme de Aboma etheostoma[8]
-Gobiosoma evelynae, synonyme de Elacatinus evelynae[9]
-Gobiosoma fasciatum, synonyme de Cryptocentrus fasciatus[10]
-Gobiosoma histrio, synonyme de Aruma histrio[11]
-Gobiosoma horsti, synonyme de Elacatinus lori[12]
-Gobiosoma gemmata, synonyme de Elacatinus gemmatus[13]
-Gobiosoma gemmatum, synonyme de Elacatinus gemmatus[13]
-Gobiosoma genie, synonyme de Elacatinus genie[14]
-Gobiosoma guttulatum, synonyme de Scartelaos histophorus[15]
-Gobiosoma illecebrosum, synonyme de Elacatinus lori[12]
-Gobiosoma insignum, synonyme de Schismatogobius insignus[16]
-Gobiosoma ios, synonyme de Clevelandia ios[17]
-Gobiosoma longipinne, synonyme de Evermannia longipinnis[18]
-Gobiosoma longum, synonyme de Nes longus[19]
-Gobiosoma louisae, synonyme de Elacatinus louisae[20]
-Gobiosoma macrodon, synonyme de Elacatinus macrodon[21]
-Gobiosoma marmoratum, synonyme de Schismatogobius marmoratus[22]
-Gobiosoma multifasciatum, synonyme de Elacatinus multifasciatus[23]
-Gobiosoma novemlineatum, synonyme de Ginsburgellus novemlineatus[24]
-Gobiosoma oceanops, synonyme de Elacatinus oceanops[25]
-Gobiosoma pallens, synonyme de Elacatinus pallens[26]
-Gobiosoma pallida, synonyme de Schismatogobius pallidus[27]
-Gobiosoma pantherinum, synonyme de Barbulifer pantherinus[28]
-Gobiosoma polyporosum, synonyme de Aboma etheostoma[8]
-Gobiosoma prochilos, synonyme de Elacatinus prochilos[29]
-Gobiosoma puncticulatum, synonyme de Elacatinus puncticulatus[30]
-Gobiosoma punctularum, synonyme de Scartelaos histophorus[15]
-Gobiosoma randalli, synonyme de Elacatinus randalli[31]
-Gobiosoma saucrum, synonyme de Elacatinus saucrus[32]
-Gobiosoma spiritisancti, synonyme de Barbulifer pantherinus[28]
-Gobiosoma tenox, synonyme de Elacatinus tenox[33]
-Gobiosoma thomasi, synonyme de Sicydium punctatum[34]
-Gobiosoma vulgare, synonyme de Hetereleotris vulgaris[35]
-Gobiosoma xanthiprora, synonyme de Elacatinus xanthiprora[36]
-Gobiosoma zebrella, synonyme de Elacatinus zebrellus[37]
-Gobiosoma zosterurum, synonyme de Evermannia zosterura[38]
+Gobiosoma yucatanum Dawson, 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gobiosoma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobiosoma</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres taxons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste ci-après prend pour référence FishBase, et regroupe les taxons autrefois classés dans Gobiosoma, déplacés ou synonymes :
+Gobiosoma amurensis, synonyme de Saurogobio dabryi
+Gobiosoma atronasum, synonyme de Elacatinus atronasus
+Gobiosoma brocki, synonyme de Elacatinus digueti
+Gobiosoma caspium, synonyme de Caspiosoma caspium
+Gobiosoma ceuthoecum, synonyme de Barbulifer ceuthoecus
+Gobiosoma chancei, synonyme de Elacatinus chancei
+Gobiosoma digueti, synonyme de Elacatinus digueti
+Gobiosoma dilepis, synonyme de Elacatinus dilepis
+Gobiosoma etheostoma, synonyme de Aboma etheostoma
+Gobiosoma evelynae, synonyme de Elacatinus evelynae
+Gobiosoma fasciatum, synonyme de Cryptocentrus fasciatus
+Gobiosoma histrio, synonyme de Aruma histrio
+Gobiosoma horsti, synonyme de Elacatinus lori
+Gobiosoma gemmata, synonyme de Elacatinus gemmatus
+Gobiosoma gemmatum, synonyme de Elacatinus gemmatus
+Gobiosoma genie, synonyme de Elacatinus genie
+Gobiosoma guttulatum, synonyme de Scartelaos histophorus
+Gobiosoma illecebrosum, synonyme de Elacatinus lori
+Gobiosoma insignum, synonyme de Schismatogobius insignus
+Gobiosoma ios, synonyme de Clevelandia ios
+Gobiosoma longipinne, synonyme de Evermannia longipinnis
+Gobiosoma longum, synonyme de Nes longus
+Gobiosoma louisae, synonyme de Elacatinus louisae
+Gobiosoma macrodon, synonyme de Elacatinus macrodon
+Gobiosoma marmoratum, synonyme de Schismatogobius marmoratus
+Gobiosoma multifasciatum, synonyme de Elacatinus multifasciatus
+Gobiosoma novemlineatum, synonyme de Ginsburgellus novemlineatus
+Gobiosoma oceanops, synonyme de Elacatinus oceanops
+Gobiosoma pallens, synonyme de Elacatinus pallens
+Gobiosoma pallida, synonyme de Schismatogobius pallidus
+Gobiosoma pantherinum, synonyme de Barbulifer pantherinus
+Gobiosoma polyporosum, synonyme de Aboma etheostoma
+Gobiosoma prochilos, synonyme de Elacatinus prochilos
+Gobiosoma puncticulatum, synonyme de Elacatinus puncticulatus
+Gobiosoma punctularum, synonyme de Scartelaos histophorus
+Gobiosoma randalli, synonyme de Elacatinus randalli
+Gobiosoma saucrum, synonyme de Elacatinus saucrus
+Gobiosoma spiritisancti, synonyme de Barbulifer pantherinus
+Gobiosoma tenox, synonyme de Elacatinus tenox
+Gobiosoma thomasi, synonyme de Sicydium punctatum
+Gobiosoma vulgare, synonyme de Hetereleotris vulgaris
+Gobiosoma xanthiprora, synonyme de Elacatinus xanthiprora
+Gobiosoma zebrella, synonyme de Elacatinus zebrellus
+Gobiosoma zosterurum, synonyme de Evermannia zosterura
 </t>
         </is>
       </c>
